--- a/RedCap_SubjectsInfo/SGLT2iAndAging-Test1Csh_DATA_LABELS_Final.xlsx
+++ b/RedCap_SubjectsInfo/SGLT2iAndAging-Test1Csh_DATA_LABELS_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\RedCap_SubjectsInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4BDF9C4-FE43-45B9-BE7C-59C5776B873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360027E-E776-4BD4-83A4-0E1F9DE65BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SGLT2iAndAging-Test1Csh_DATA_LA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="508">
   <si>
     <t>id</t>
   </si>
@@ -1520,13 +1520,37 @@
   </si>
   <si>
     <t>Event Name_Orig</t>
+  </si>
+  <si>
+    <t>76664_V9</t>
+  </si>
+  <si>
+    <t>76664_V10</t>
+  </si>
+  <si>
+    <t>76664_V11</t>
+  </si>
+  <si>
+    <t>76664_V12</t>
+  </si>
+  <si>
+    <t>76667_V9</t>
+  </si>
+  <si>
+    <t>76667_V10</t>
+  </si>
+  <si>
+    <t>76667_V11</t>
+  </si>
+  <si>
+    <t>76667_V12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1657,6 +1681,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2366,11 +2396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DM408"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DM416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396:XFD396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2379,6 +2409,7 @@
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:117" x14ac:dyDescent="0.3">
@@ -24310,105 +24341,249 @@
     </row>
     <row r="394" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="C394">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D394" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E394" t="s">
-        <v>112</v>
-      </c>
-      <c r="H394" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="395" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C395">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D395" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="E395" t="s">
-        <v>114</v>
+        <v>147</v>
+      </c>
+      <c r="P395" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q395">
+        <v>64</v>
+      </c>
+      <c r="R395">
+        <v>196.6</v>
+      </c>
+      <c r="S395">
+        <v>33.74</v>
+      </c>
+      <c r="T395">
+        <v>139</v>
+      </c>
+      <c r="U395">
+        <v>83</v>
+      </c>
+      <c r="V395">
+        <v>55</v>
+      </c>
+      <c r="W395">
+        <v>14</v>
+      </c>
+      <c r="X395">
+        <v>97.2</v>
       </c>
     </row>
     <row r="396" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="C396">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D396" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E396" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="P396" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q396">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R396">
-        <v>243.8</v>
+        <v>195.3</v>
       </c>
       <c r="S396">
-        <v>39.35</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="T396">
         <v>128</v>
       </c>
       <c r="U396">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V396">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W396">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X396">
-        <v>98.3</v>
+        <v>97.2</v>
+      </c>
+      <c r="Z396">
+        <v>5.8</v>
+      </c>
+      <c r="AA396">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB396">
+        <v>15.9</v>
+      </c>
+      <c r="AC396">
+        <v>45.8</v>
+      </c>
+      <c r="AD396">
+        <v>11</v>
+      </c>
+      <c r="AE396">
+        <v>0</v>
+      </c>
+      <c r="AF396">
+        <v>3.9</v>
+      </c>
+      <c r="AG396">
+        <v>0.2</v>
+      </c>
+      <c r="AH396">
+        <v>0</v>
+      </c>
+      <c r="AI396">
+        <v>93</v>
+      </c>
+      <c r="AJ396">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AK396">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AL396">
+        <v>12.8</v>
+      </c>
+      <c r="AM396">
+        <v>184</v>
       </c>
       <c r="AN396" t="s">
-        <v>143</v>
-      </c>
-      <c r="CY396" t="s">
-        <v>143</v>
+        <v>120</v>
+      </c>
+      <c r="AO396">
+        <v>6.1</v>
+      </c>
+      <c r="AP396">
+        <v>110</v>
+      </c>
+      <c r="AQ396">
+        <v>21</v>
+      </c>
+      <c r="AR396">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AS396">
+        <v>138</v>
+      </c>
+      <c r="AT396">
+        <v>4.3</v>
+      </c>
+      <c r="AU396">
+        <v>102</v>
+      </c>
+      <c r="AV396">
+        <v>20</v>
+      </c>
+      <c r="AW396">
+        <v>9.9</v>
+      </c>
+      <c r="AX396">
+        <v>6.9</v>
+      </c>
+      <c r="AY396">
+        <v>4.7</v>
+      </c>
+      <c r="AZ396">
+        <v>57</v>
+      </c>
+      <c r="BA396">
+        <v>0.5</v>
+      </c>
+      <c r="BB396">
+        <v>47</v>
+      </c>
+      <c r="BC396">
+        <v>67</v>
+      </c>
+      <c r="BD396">
+        <v>74</v>
+      </c>
+      <c r="BE396" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF396" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG396" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH396" s="1">
+        <v>44776</v>
+      </c>
+      <c r="BI396">
+        <v>194</v>
+      </c>
+      <c r="BJ396">
+        <v>299</v>
+      </c>
+      <c r="BK396">
+        <v>39</v>
+      </c>
+      <c r="BL396">
+        <v>104</v>
+      </c>
+      <c r="BM396">
+        <v>51</v>
+      </c>
+      <c r="BZ396" s="1">
+        <v>44776</v>
+      </c>
+      <c r="CA396" s="1">
+        <v>44776</v>
+      </c>
+      <c r="DL396" s="1">
+        <v>44776</v>
       </c>
     </row>
     <row r="397" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C397">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D397" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="E397" t="s">
-        <v>112</v>
-      </c>
-      <c r="H397" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="398" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C398">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D398" t="s">
         <v>112</v>
@@ -24422,10 +24597,10 @@
     </row>
     <row r="399" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C399">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D399" t="s">
         <v>114</v>
@@ -24436,10 +24611,10 @@
     </row>
     <row r="400" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C400">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D400" t="s">
         <v>116</v>
@@ -24447,579 +24622,938 @@
       <c r="E400" t="s">
         <v>116</v>
       </c>
-      <c r="I400">
-        <v>66</v>
-      </c>
-      <c r="J400" t="s">
-        <v>117</v>
-      </c>
-      <c r="K400" t="s">
-        <v>490</v>
-      </c>
       <c r="P400" t="s">
         <v>119</v>
       </c>
       <c r="Q400">
-        <v>63.5</v>
+        <v>66</v>
       </c>
       <c r="R400">
-        <v>171</v>
+        <v>243.8</v>
       </c>
       <c r="S400">
-        <v>29.81</v>
+        <v>39.35</v>
       </c>
       <c r="T400">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="U400">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="V400">
-        <v>75</v>
-      </c>
-      <c r="Y400" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z400">
-        <v>3.5</v>
-      </c>
-      <c r="AA400">
-        <v>4.8</v>
-      </c>
-      <c r="AB400">
-        <v>14.9</v>
-      </c>
-      <c r="AC400">
-        <v>45</v>
-      </c>
-      <c r="AD400">
-        <v>8</v>
-      </c>
-      <c r="AE400">
-        <v>0</v>
-      </c>
-      <c r="AF400">
-        <v>1.9</v>
-      </c>
-      <c r="AG400">
-        <v>0.1</v>
-      </c>
-      <c r="AH400">
-        <v>0</v>
-      </c>
-      <c r="AI400">
-        <v>94</v>
-      </c>
-      <c r="AJ400">
-        <v>31</v>
-      </c>
-      <c r="AK400">
-        <v>33.1</v>
-      </c>
-      <c r="AL400">
-        <v>12.7</v>
-      </c>
-      <c r="AM400">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="W400">
+        <v>14</v>
+      </c>
+      <c r="X400">
+        <v>98.3</v>
       </c>
       <c r="AN400" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO400">
-        <v>5.9</v>
-      </c>
-      <c r="AP400">
-        <v>115</v>
-      </c>
-      <c r="AQ400">
-        <v>15</v>
-      </c>
-      <c r="AR400">
-        <v>0.83</v>
-      </c>
-      <c r="AS400">
-        <v>141</v>
-      </c>
-      <c r="AT400">
-        <v>3.8</v>
-      </c>
-      <c r="AU400">
-        <v>100</v>
-      </c>
-      <c r="AV400">
-        <v>25</v>
-      </c>
-      <c r="AW400">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AX400">
-        <v>7.6</v>
-      </c>
-      <c r="AY400">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AZ400">
-        <v>90</v>
-      </c>
-      <c r="BA400">
-        <v>0.4</v>
-      </c>
-      <c r="BB400">
-        <v>25</v>
-      </c>
-      <c r="BC400">
-        <v>31</v>
-      </c>
-      <c r="BD400">
-        <v>78</v>
-      </c>
-      <c r="BE400">
-        <v>1.78</v>
-      </c>
-      <c r="BF400" t="s">
-        <v>174</v>
-      </c>
-      <c r="BG400" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH400" s="1">
-        <v>44634</v>
-      </c>
-      <c r="BI400">
-        <v>279</v>
-      </c>
-      <c r="BJ400">
-        <v>89</v>
-      </c>
-      <c r="BK400">
-        <v>124</v>
-      </c>
-      <c r="BL400">
-        <v>141</v>
-      </c>
-      <c r="BM400">
-        <v>14</v>
-      </c>
-      <c r="BN400" s="1">
-        <v>44634</v>
-      </c>
-      <c r="BO400">
-        <v>11.2</v>
-      </c>
-      <c r="BP400">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BQ400">
-        <v>31</v>
-      </c>
-      <c r="BR400">
-        <v>5</v>
-      </c>
-      <c r="BS400" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT400" t="s">
-        <v>122</v>
-      </c>
-      <c r="BU400" t="s">
-        <v>122</v>
-      </c>
-      <c r="BV400" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW400" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX400" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY400" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="CY400" t="s">
         <v>143</v>
       </c>
-      <c r="CZ400">
-        <v>30</v>
-      </c>
     </row>
     <row r="401" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C401">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D401" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E401" t="s">
-        <v>126</v>
-      </c>
-      <c r="P401" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q401">
-        <v>63.5</v>
-      </c>
-      <c r="R401">
-        <v>170.2</v>
-      </c>
-      <c r="S401">
-        <v>29.67</v>
-      </c>
-      <c r="T401">
-        <v>127</v>
-      </c>
-      <c r="U401">
-        <v>75</v>
-      </c>
-      <c r="V401">
-        <v>75</v>
-      </c>
-      <c r="W401">
-        <v>16</v>
-      </c>
-      <c r="X401">
-        <v>97.9</v>
-      </c>
-      <c r="DA401" s="1">
-        <v>44655</v>
-      </c>
-      <c r="DB401">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="DC401">
-        <v>49.7</v>
-      </c>
-      <c r="DD401">
-        <v>1.5</v>
-      </c>
-      <c r="DE401">
-        <v>72.5</v>
-      </c>
-      <c r="DF401">
-        <v>48.3</v>
-      </c>
-      <c r="DG401" s="3">
-        <v>70357</v>
-      </c>
-      <c r="DH401" s="3">
-        <v>34985</v>
-      </c>
-      <c r="DI401" s="3">
-        <v>35372</v>
-      </c>
-      <c r="DJ401" s="3">
-        <v>2134</v>
-      </c>
-      <c r="DK401" s="3">
-        <v>37507</v>
+        <v>112</v>
+      </c>
+      <c r="H401" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="402" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C402">
         <v>67</v>
       </c>
       <c r="D402" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E402" t="s">
-        <v>128</v>
+        <v>112</v>
+      </c>
+      <c r="H402" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="403" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C403">
         <v>67</v>
       </c>
       <c r="D403" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E403" t="s">
-        <v>130</v>
-      </c>
-      <c r="P403" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q403">
-        <v>63.5</v>
-      </c>
-      <c r="R403">
-        <v>172.9</v>
-      </c>
-      <c r="S403">
-        <v>30.14</v>
-      </c>
-      <c r="T403">
-        <v>141</v>
-      </c>
-      <c r="U403">
-        <v>80</v>
-      </c>
-      <c r="V403">
-        <v>73</v>
-      </c>
-      <c r="W403">
-        <v>16</v>
-      </c>
-      <c r="X403">
-        <v>97.2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="404" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C404">
         <v>67</v>
       </c>
       <c r="D404" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E404" t="s">
-        <v>132</v>
-      </c>
-      <c r="L404" t="s">
-        <v>133</v>
-      </c>
-      <c r="M404" t="s">
-        <v>134</v>
-      </c>
-      <c r="N404" s="1">
-        <v>44673</v>
-      </c>
-      <c r="O404" t="s">
+        <v>116</v>
+      </c>
+      <c r="I404">
+        <v>66</v>
+      </c>
+      <c r="J404" t="s">
+        <v>117</v>
+      </c>
+      <c r="K404" t="s">
+        <v>490</v>
+      </c>
+      <c r="P404" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q404">
+        <v>63.5</v>
+      </c>
+      <c r="R404">
+        <v>171</v>
+      </c>
+      <c r="S404">
+        <v>29.81</v>
+      </c>
+      <c r="T404">
+        <v>123</v>
+      </c>
+      <c r="U404">
+        <v>83</v>
+      </c>
+      <c r="V404">
+        <v>75</v>
+      </c>
+      <c r="Y404" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z404">
+        <v>3.5</v>
+      </c>
+      <c r="AA404">
+        <v>4.8</v>
+      </c>
+      <c r="AB404">
+        <v>14.9</v>
+      </c>
+      <c r="AC404">
+        <v>45</v>
+      </c>
+      <c r="AD404">
+        <v>8</v>
+      </c>
+      <c r="AE404">
+        <v>0</v>
+      </c>
+      <c r="AF404">
+        <v>1.9</v>
+      </c>
+      <c r="AG404">
+        <v>0.1</v>
+      </c>
+      <c r="AH404">
+        <v>0</v>
+      </c>
+      <c r="AI404">
+        <v>94</v>
+      </c>
+      <c r="AJ404">
+        <v>31</v>
+      </c>
+      <c r="AK404">
+        <v>33.1</v>
+      </c>
+      <c r="AL404">
+        <v>12.7</v>
+      </c>
+      <c r="AM404">
+        <v>230</v>
+      </c>
+      <c r="AN404" t="s">
         <v>120</v>
       </c>
-      <c r="P404" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q404">
-        <v>63</v>
-      </c>
-      <c r="R404">
-        <v>172.5</v>
-      </c>
-      <c r="S404">
-        <v>30.55</v>
-      </c>
-      <c r="T404">
-        <v>127</v>
-      </c>
-      <c r="U404">
-        <v>73</v>
-      </c>
-      <c r="V404">
-        <v>73</v>
-      </c>
-      <c r="W404">
-        <v>16</v>
-      </c>
-      <c r="X404">
-        <v>97</v>
-      </c>
-      <c r="BZ404" s="1">
-        <v>44673</v>
-      </c>
-      <c r="CA404" s="1">
-        <v>44673</v>
-      </c>
-      <c r="DL404" s="1">
-        <v>44673</v>
+      <c r="AO404">
+        <v>5.9</v>
+      </c>
+      <c r="AP404">
+        <v>115</v>
+      </c>
+      <c r="AQ404">
+        <v>15</v>
+      </c>
+      <c r="AR404">
+        <v>0.83</v>
+      </c>
+      <c r="AS404">
+        <v>141</v>
+      </c>
+      <c r="AT404">
+        <v>3.8</v>
+      </c>
+      <c r="AU404">
+        <v>100</v>
+      </c>
+      <c r="AV404">
+        <v>25</v>
+      </c>
+      <c r="AW404">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AX404">
+        <v>7.6</v>
+      </c>
+      <c r="AY404">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AZ404">
+        <v>90</v>
+      </c>
+      <c r="BA404">
+        <v>0.4</v>
+      </c>
+      <c r="BB404">
+        <v>25</v>
+      </c>
+      <c r="BC404">
+        <v>31</v>
+      </c>
+      <c r="BD404">
+        <v>78</v>
+      </c>
+      <c r="BE404">
+        <v>1.78</v>
+      </c>
+      <c r="BF404" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG404" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH404" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BI404">
+        <v>279</v>
+      </c>
+      <c r="BJ404">
+        <v>89</v>
+      </c>
+      <c r="BK404">
+        <v>124</v>
+      </c>
+      <c r="BL404">
+        <v>141</v>
+      </c>
+      <c r="BM404">
+        <v>14</v>
+      </c>
+      <c r="BN404" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BO404">
+        <v>11.2</v>
+      </c>
+      <c r="BP404">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BQ404">
+        <v>31</v>
+      </c>
+      <c r="BR404">
+        <v>5</v>
+      </c>
+      <c r="BS404" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT404" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU404" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV404" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW404" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX404" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY404" t="s">
+        <v>121</v>
+      </c>
+      <c r="CY404" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ404">
+        <v>30</v>
       </c>
     </row>
     <row r="405" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C405">
         <v>67</v>
       </c>
       <c r="D405" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E405" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="P405" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q405">
+        <v>63.5</v>
+      </c>
+      <c r="R405">
+        <v>170.2</v>
+      </c>
+      <c r="S405">
+        <v>29.67</v>
+      </c>
+      <c r="T405">
+        <v>127</v>
+      </c>
+      <c r="U405">
+        <v>75</v>
+      </c>
+      <c r="V405">
+        <v>75</v>
+      </c>
+      <c r="W405">
+        <v>16</v>
+      </c>
+      <c r="X405">
+        <v>97.9</v>
+      </c>
+      <c r="DA405" s="1">
+        <v>44655</v>
+      </c>
+      <c r="DB405">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="DC405">
+        <v>49.7</v>
+      </c>
+      <c r="DD405">
+        <v>1.5</v>
+      </c>
+      <c r="DE405">
+        <v>72.5</v>
+      </c>
+      <c r="DF405">
+        <v>48.3</v>
+      </c>
+      <c r="DG405" s="3">
+        <v>70357</v>
+      </c>
+      <c r="DH405" s="3">
+        <v>34985</v>
+      </c>
+      <c r="DI405" s="3">
+        <v>35372</v>
+      </c>
+      <c r="DJ405" s="3">
+        <v>2134</v>
+      </c>
+      <c r="DK405" s="3">
+        <v>37507</v>
       </c>
     </row>
     <row r="406" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C406">
         <v>67</v>
       </c>
       <c r="D406" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E406" t="s">
-        <v>138</v>
-      </c>
-      <c r="P406" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q406">
-        <v>63.5</v>
-      </c>
-      <c r="R406">
-        <v>173.4</v>
-      </c>
-      <c r="S406">
-        <v>30.23</v>
-      </c>
-      <c r="T406">
-        <v>134</v>
-      </c>
-      <c r="U406">
-        <v>81</v>
-      </c>
-      <c r="V406">
-        <v>71</v>
-      </c>
-      <c r="W406">
-        <v>12</v>
-      </c>
-      <c r="X406">
-        <v>97.8</v>
-      </c>
-      <c r="AP406">
-        <v>107</v>
-      </c>
-      <c r="AQ406">
-        <v>13</v>
-      </c>
-      <c r="AR406">
-        <v>0.88</v>
-      </c>
-      <c r="AS406">
-        <v>145</v>
-      </c>
-      <c r="AT406">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU406">
-        <v>101</v>
-      </c>
-      <c r="AV406">
-        <v>24</v>
-      </c>
-      <c r="AW406">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AX406">
-        <v>7.1</v>
-      </c>
-      <c r="AY406">
-        <v>4.7</v>
-      </c>
-      <c r="AZ406">
-        <v>92</v>
-      </c>
-      <c r="BA406">
-        <v>0.3</v>
-      </c>
-      <c r="BB406">
-        <v>28</v>
-      </c>
-      <c r="BC406">
-        <v>21</v>
-      </c>
-      <c r="BD406">
-        <v>0.88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="407" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C407">
         <v>67</v>
       </c>
       <c r="D407" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E407" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P407" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Q407">
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="R407">
-        <v>171</v>
+        <v>172.9</v>
       </c>
       <c r="S407">
-        <v>30.29</v>
+        <v>30.14</v>
       </c>
       <c r="T407">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="U407">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="V407">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W407">
         <v>16</v>
       </c>
       <c r="X407">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="408" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C408">
         <v>67</v>
       </c>
       <c r="D408" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E408" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="L408" t="s">
+        <v>133</v>
+      </c>
+      <c r="M408" t="s">
+        <v>134</v>
+      </c>
+      <c r="N408" s="1">
+        <v>44673</v>
+      </c>
+      <c r="O408" t="s">
+        <v>120</v>
       </c>
       <c r="P408" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Q408">
         <v>63</v>
       </c>
       <c r="R408">
-        <v>170.9</v>
+        <v>172.5</v>
       </c>
       <c r="S408">
-        <v>30.27</v>
+        <v>30.55</v>
       </c>
       <c r="T408">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="U408">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V408">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W408">
         <v>16</v>
       </c>
       <c r="X408">
+        <v>97</v>
+      </c>
+      <c r="BZ408" s="1">
+        <v>44673</v>
+      </c>
+      <c r="CA408" s="1">
+        <v>44673</v>
+      </c>
+      <c r="DL408" s="1">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="409" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A409" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C409">
+        <v>67</v>
+      </c>
+      <c r="D409" t="s">
+        <v>136</v>
+      </c>
+      <c r="E409" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="410" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A410" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C410">
+        <v>67</v>
+      </c>
+      <c r="D410" t="s">
+        <v>138</v>
+      </c>
+      <c r="E410" t="s">
+        <v>138</v>
+      </c>
+      <c r="P410" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q410">
+        <v>63.5</v>
+      </c>
+      <c r="R410">
+        <v>173.4</v>
+      </c>
+      <c r="S410">
+        <v>30.23</v>
+      </c>
+      <c r="T410">
+        <v>134</v>
+      </c>
+      <c r="U410">
+        <v>81</v>
+      </c>
+      <c r="V410">
+        <v>71</v>
+      </c>
+      <c r="W410">
+        <v>12</v>
+      </c>
+      <c r="X410">
+        <v>97.8</v>
+      </c>
+      <c r="AP410">
+        <v>107</v>
+      </c>
+      <c r="AQ410">
+        <v>13</v>
+      </c>
+      <c r="AR410">
+        <v>0.88</v>
+      </c>
+      <c r="AS410">
+        <v>145</v>
+      </c>
+      <c r="AT410">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU410">
+        <v>101</v>
+      </c>
+      <c r="AV410">
+        <v>24</v>
+      </c>
+      <c r="AW410">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AX410">
+        <v>7.1</v>
+      </c>
+      <c r="AY410">
+        <v>4.7</v>
+      </c>
+      <c r="AZ410">
+        <v>92</v>
+      </c>
+      <c r="BA410">
+        <v>0.3</v>
+      </c>
+      <c r="BB410">
+        <v>28</v>
+      </c>
+      <c r="BC410">
+        <v>21</v>
+      </c>
+      <c r="BD410">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="411" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A411" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C411">
+        <v>67</v>
+      </c>
+      <c r="D411" t="s">
+        <v>140</v>
+      </c>
+      <c r="E411" t="s">
+        <v>140</v>
+      </c>
+      <c r="P411" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q411">
+        <v>63</v>
+      </c>
+      <c r="R411">
+        <v>171</v>
+      </c>
+      <c r="S411">
+        <v>30.29</v>
+      </c>
+      <c r="T411">
+        <v>113</v>
+      </c>
+      <c r="U411">
+        <v>71</v>
+      </c>
+      <c r="V411">
+        <v>71</v>
+      </c>
+      <c r="W411">
+        <v>16</v>
+      </c>
+      <c r="X411">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A412" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C412">
+        <v>67</v>
+      </c>
+      <c r="D412" t="s">
+        <v>142</v>
+      </c>
+      <c r="E412" t="s">
+        <v>142</v>
+      </c>
+      <c r="P412" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q412">
+        <v>63</v>
+      </c>
+      <c r="R412">
+        <v>170.9</v>
+      </c>
+      <c r="S412">
+        <v>30.27</v>
+      </c>
+      <c r="T412">
+        <v>122</v>
+      </c>
+      <c r="U412">
+        <v>75</v>
+      </c>
+      <c r="V412">
+        <v>77</v>
+      </c>
+      <c r="W412">
+        <v>16</v>
+      </c>
+      <c r="X412">
         <v>97.6</v>
       </c>
-      <c r="CY408" t="s">
-        <v>143</v>
+      <c r="CY412" t="s">
+        <v>120</v>
+      </c>
+      <c r="DA412" s="1">
+        <v>44762</v>
+      </c>
+      <c r="DB412">
+        <v>66.8</v>
+      </c>
+      <c r="DC412">
+        <v>47.3</v>
+      </c>
+      <c r="DD412">
+        <v>1.8</v>
+      </c>
+      <c r="DE412">
+        <v>76.5</v>
+      </c>
+      <c r="DF412">
+        <v>47.3</v>
+      </c>
+      <c r="DG412">
+        <v>74409</v>
+      </c>
+      <c r="DH412">
+        <v>35181</v>
+      </c>
+      <c r="DI412">
+        <v>39181</v>
+      </c>
+      <c r="DJ412">
+        <v>2136</v>
+      </c>
+      <c r="DK412">
+        <v>41363</v>
+      </c>
+    </row>
+    <row r="413" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A413" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C413">
+        <v>67</v>
+      </c>
+      <c r="D413" t="s">
+        <v>145</v>
+      </c>
+      <c r="E413" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="414" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A414" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C414">
+        <v>67</v>
+      </c>
+      <c r="D414" t="s">
+        <v>147</v>
+      </c>
+      <c r="E414" t="s">
+        <v>147</v>
+      </c>
+      <c r="P414" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q414">
+        <v>63</v>
+      </c>
+      <c r="R414">
+        <v>172.2</v>
+      </c>
+      <c r="S414">
+        <v>30.5</v>
+      </c>
+      <c r="T414">
+        <v>116</v>
+      </c>
+      <c r="U414">
+        <v>77</v>
+      </c>
+      <c r="V414">
+        <v>67</v>
+      </c>
+      <c r="W414">
+        <v>18</v>
+      </c>
+      <c r="X414">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A415" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C415">
+        <v>67</v>
+      </c>
+      <c r="D415" t="s">
+        <v>149</v>
+      </c>
+      <c r="E415" t="s">
+        <v>149</v>
+      </c>
+      <c r="P415" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q415">
+        <v>63</v>
+      </c>
+      <c r="R415">
+        <v>170.5</v>
+      </c>
+      <c r="S415">
+        <v>30.2</v>
+      </c>
+      <c r="T415">
+        <v>136</v>
+      </c>
+      <c r="U415">
+        <v>64</v>
+      </c>
+      <c r="V415">
+        <v>77</v>
+      </c>
+      <c r="W415">
+        <v>16</v>
+      </c>
+      <c r="X415">
+        <v>97.2</v>
+      </c>
+      <c r="Z415">
+        <v>4</v>
+      </c>
+      <c r="AA415">
+        <v>4.5</v>
+      </c>
+      <c r="AB415">
+        <v>14.5</v>
+      </c>
+      <c r="AC415">
+        <v>46.6</v>
+      </c>
+      <c r="AD415">
+        <v>8</v>
+      </c>
+      <c r="AE415">
+        <v>0</v>
+      </c>
+      <c r="AF415">
+        <v>2.1</v>
+      </c>
+      <c r="AG415">
+        <v>0.2</v>
+      </c>
+      <c r="AH415">
+        <v>0</v>
+      </c>
+      <c r="AI415">
+        <v>98</v>
+      </c>
+      <c r="AJ415">
+        <v>31.7</v>
+      </c>
+      <c r="AK415">
+        <v>32.5</v>
+      </c>
+      <c r="AL415">
+        <v>13.4</v>
+      </c>
+      <c r="AM415">
+        <v>246</v>
+      </c>
+      <c r="AN415" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO415">
+        <v>5.8</v>
+      </c>
+      <c r="AP415">
+        <v>107</v>
+      </c>
+      <c r="AQ415">
+        <v>11</v>
+      </c>
+      <c r="AR415">
+        <v>0.79</v>
+      </c>
+      <c r="AS415">
+        <v>142</v>
+      </c>
+      <c r="AT415">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU415">
+        <v>103</v>
+      </c>
+      <c r="AV415">
+        <v>23</v>
+      </c>
+      <c r="AW415">
+        <v>9.5</v>
+      </c>
+      <c r="AX415">
+        <v>2.7</v>
+      </c>
+      <c r="AY415">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AZ415">
+        <v>80</v>
+      </c>
+      <c r="BA415">
+        <v>0.3</v>
+      </c>
+      <c r="BB415">
+        <v>19</v>
+      </c>
+      <c r="BC415">
+        <v>17</v>
+      </c>
+      <c r="BD415">
+        <v>82</v>
+      </c>
+      <c r="BH415" s="1">
+        <v>44811</v>
+      </c>
+      <c r="BI415">
+        <v>258</v>
+      </c>
+      <c r="BJ415">
+        <v>128</v>
+      </c>
+      <c r="BK415">
+        <v>105</v>
+      </c>
+      <c r="BL415">
+        <v>131</v>
+      </c>
+      <c r="BM415">
+        <v>22</v>
+      </c>
+      <c r="BZ415" s="1">
+        <v>44811</v>
+      </c>
+      <c r="CA415" s="1">
+        <v>44811</v>
+      </c>
+      <c r="DL415" s="1">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="416" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A416" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C416">
+        <v>67</v>
+      </c>
+      <c r="D416" t="s">
+        <v>151</v>
+      </c>
+      <c r="E416" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RedCap_SubjectsInfo/SGLT2iAndAging-Test1Csh_DATA_LABELS_Final.xlsx
+++ b/RedCap_SubjectsInfo/SGLT2iAndAging-Test1Csh_DATA_LABELS_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\RedCap_SubjectsInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360027E-E776-4BD4-83A4-0E1F9DE65BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D5973B-36A6-4DC7-AAEE-C5438D18375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="508">
   <si>
     <t>id</t>
   </si>
@@ -2399,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DM416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A396" sqref="A396:XFD396"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22567,6 +22567,9 @@
       <c r="A364" s="5" t="s">
         <v>453</v>
       </c>
+      <c r="B364" t="s">
+        <v>133</v>
+      </c>
       <c r="C364">
         <v>61</v>
       </c>
@@ -23411,6 +23414,9 @@
       <c r="A378" s="5" t="s">
         <v>467</v>
       </c>
+      <c r="B378" t="s">
+        <v>133</v>
+      </c>
       <c r="C378">
         <v>62</v>
       </c>
@@ -24397,6 +24403,9 @@
     <row r="396" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>502</v>
+      </c>
+      <c r="B396" t="s">
+        <v>133</v>
       </c>
       <c r="C396">
         <v>64</v>
